--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>0.4</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="1">B3*0.3</f>
+        <f t="shared" ref="E3:E6" si="1">B3*0.3</f>
         <v>2.4</v>
       </c>
     </row>

--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -179,7 +179,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -190,7 +190,6 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -477,13 +476,13 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -533,11 +532,11 @@
         <v>20</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D12" si="0">B3/C3</f>
+        <f t="shared" ref="D3:D13" si="0">B3/C3</f>
         <v>0.4</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E6" si="1">B3*0.3</f>
+        <f>B3*0.3</f>
         <v>2.4</v>
       </c>
     </row>
@@ -556,7 +555,7 @@
         <v>0.96666666666666667</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E6" si="1">B4*0.3</f>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -583,23 +582,26 @@
       </c>
       <c r="H5" s="2">
         <f>SUM(E2:E6)</f>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
       <c r="C6" s="3">
         <v>20</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -697,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>40</v>
       </c>
       <c r="D11" s="8">
@@ -744,16 +746,19 @@
       </c>
       <c r="B13" s="6">
         <f xml:space="preserve"> SUM(B2:B12)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C13" s="6">
         <f xml:space="preserve"> SUM(C2:C12)</f>
         <v>300</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
       <c r="E13" s="6">
         <f xml:space="preserve"> SUM(E2:E12)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">

--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,10 +154,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -165,10 +171,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -179,18 +194,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -476,296 +493,296 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <f>B2/C2</f>
         <v>0.8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>B2*0.3</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D13" si="0">B3/C3</f>
         <v>0.4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>B3*0.3</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>29</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" ref="E3:E6" si="1">B4*0.3</f>
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>SUM(E2:E6)</f>
         <v>25.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>B7*0.5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>45</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>45</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" ref="E8:E9" si="2">B8*0.5</f>
         <v>22.5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f>SUM(E7:E9)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>35</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
         <v>30</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f>B10*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>40</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" ref="E11:E12" si="3">B11*0.2</f>
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f>SUM(E10:E12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <f xml:space="preserve"> SUM(B2:B12)</f>
         <v>140</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <f xml:space="preserve"> SUM(C2:C12)</f>
         <v>300</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <f xml:space="preserve"> SUM(E2:E12)</f>
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <f>IF(E13&gt;=83,5,IF(E13&gt;=69,4,IF(E13&gt;=55,3,IF(E13&gt;=41,2,1))))</f>
         <v>2</v>
       </c>

--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Beadás</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>MAX:</t>
+  </si>
+  <si>
+    <t>Minden részből a pontok 41%-a kell min</t>
   </si>
 </sst>
 </file>
@@ -493,12 +496,12 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,7 +575,7 @@
         <v>0.96666666666666667</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E6" si="1">B4*0.3</f>
+        <f t="shared" ref="E4:E6" si="1">B4*0.3</f>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -776,6 +779,11 @@
       <c r="E13" s="10">
         <f xml:space="preserve"> SUM(E2:E12)</f>
         <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">

--- a/points/points.xlsx
+++ b/points/points.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,23 +672,26 @@
       </c>
       <c r="H8" s="1">
         <f>SUM(E7:E9)</f>
-        <v>27.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="7">
+        <v>16</v>
+      </c>
       <c r="C9" s="7">
         <v>35</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>19</v>
@@ -701,17 +704,19 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
       <c r="C10" s="1">
         <v>30</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E10" s="1">
         <f>B10*0.2</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,7 +740,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(E10:E12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,7 +771,7 @@
       </c>
       <c r="B13" s="10">
         <f xml:space="preserve"> SUM(B2:B12)</f>
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="C13" s="10">
         <f xml:space="preserve"> SUM(C2:C12)</f>
@@ -774,11 +779,11 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.60333333333333339</v>
       </c>
       <c r="E13" s="10">
         <f xml:space="preserve"> SUM(E2:E12)</f>
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,7 +797,7 @@
       </c>
       <c r="H17" s="12">
         <f>IF(E13&gt;=83,5,IF(E13&gt;=69,4,IF(E13&gt;=55,3,IF(E13&gt;=41,2,1))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
